--- a/docs/UKCore-Encounter.xlsx
+++ b/docs/UKCore-Encounter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10342" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10343" uniqueCount="762">
   <si>
     <t>Path</t>
   </si>
@@ -1501,6 +1501,12 @@
   </si>
   <si>
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
+  </si>
+  <si>
+    <t>Reason why the encounter takes place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -17132,11 +17138,13 @@
         <v>43</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X132" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="Y132" t="s" s="2">
-        <v>43</v>
+        <v>483</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>43</v>
@@ -17169,21 +17177,21 @@
         <v>62</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17206,10 +17214,10 @@
         <v>51</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>480</v>
@@ -17265,7 +17273,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -17280,21 +17288,21 @@
         <v>62</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17403,7 +17411,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17514,7 +17522,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17625,7 +17633,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17736,7 +17744,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17847,7 +17855,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17956,7 +17964,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18067,7 +18075,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18180,7 +18188,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18293,7 +18301,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18406,7 +18414,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18517,7 +18525,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18626,7 +18634,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18737,7 +18745,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18848,7 +18856,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18874,10 +18882,10 @@
         <v>190</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18928,7 +18936,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -18946,7 +18954,7 @@
         <v>43</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>43</v>
@@ -18957,7 +18965,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19066,7 +19074,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19177,7 +19185,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19290,11 +19298,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19313,13 +19321,13 @@
         <v>51</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>481</v>
@@ -19372,7 +19380,7 @@
         <v>43</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>50</v>
@@ -19387,21 +19395,21 @@
         <v>62</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19510,7 +19518,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19621,7 +19629,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19732,7 +19740,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19843,7 +19851,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19954,7 +19962,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20063,7 +20071,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20174,7 +20182,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20287,7 +20295,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20400,7 +20408,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20513,7 +20521,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20624,7 +20632,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20733,7 +20741,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20844,7 +20852,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20955,7 +20963,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20981,10 +20989,10 @@
         <v>137</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -21014,10 +21022,10 @@
         <v>74</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>43</v>
@@ -21035,7 +21043,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -21064,7 +21072,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21087,13 +21095,13 @@
         <v>43</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -21144,7 +21152,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>41</v>
@@ -21162,7 +21170,7 @@
         <v>43</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>43</v>
@@ -21173,7 +21181,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21196,16 +21204,16 @@
         <v>43</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -21255,7 +21263,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -21273,7 +21281,7 @@
         <v>43</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>43</v>
@@ -21284,7 +21292,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21393,7 +21401,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21504,7 +21512,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21615,7 +21623,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21726,7 +21734,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21837,7 +21845,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21946,7 +21954,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22057,7 +22065,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22170,7 +22178,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22283,7 +22291,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22396,7 +22404,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22507,7 +22515,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22616,7 +22624,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22727,7 +22735,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22838,7 +22846,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22864,13 +22872,13 @@
         <v>190</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
@@ -22920,7 +22928,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -22938,7 +22946,7 @@
         <v>43</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>43</v>
@@ -22949,7 +22957,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23058,7 +23066,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23169,7 +23177,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23282,7 +23290,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23308,10 +23316,10 @@
         <v>108</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
@@ -23362,7 +23370,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -23386,12 +23394,12 @@
         <v>43</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23500,7 +23508,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23611,7 +23619,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23724,7 +23732,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23837,7 +23845,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23950,7 +23958,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24061,7 +24069,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24170,7 +24178,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24281,7 +24289,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24304,13 +24312,13 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -24361,7 +24369,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -24379,7 +24387,7 @@
         <v>43</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AL197" t="s" s="2">
         <v>43</v>
@@ -24390,7 +24398,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24499,7 +24507,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24610,7 +24618,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -24721,7 +24729,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -24832,7 +24840,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -24943,7 +24951,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25052,7 +25060,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25163,7 +25171,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25276,7 +25284,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -25389,7 +25397,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -25502,7 +25510,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -25613,7 +25621,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -25722,7 +25730,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -25833,7 +25841,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -25944,7 +25952,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -25970,10 +25978,10 @@
         <v>137</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
@@ -26003,10 +26011,10 @@
         <v>142</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Z212" t="s" s="2">
         <v>43</v>
@@ -26024,7 +26032,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -26042,18 +26050,18 @@
         <v>43</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26079,10 +26087,10 @@
         <v>137</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -26112,10 +26120,10 @@
         <v>230</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>43</v>
@@ -26133,7 +26141,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -26157,12 +26165,12 @@
         <v>43</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -26271,7 +26279,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -26382,7 +26390,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -26493,7 +26501,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>247</v>
@@ -26608,7 +26616,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -26717,7 +26725,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -26828,7 +26836,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -26941,7 +26949,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27052,7 +27060,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27163,7 +27171,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -27274,7 +27282,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -27387,7 +27395,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -27500,7 +27508,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -27526,16 +27534,16 @@
         <v>137</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -27563,10 +27571,10 @@
         <v>230</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>43</v>
@@ -27584,7 +27592,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -27602,18 +27610,18 @@
         <v>43</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AL226" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -27639,10 +27647,10 @@
         <v>137</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -27672,10 +27680,10 @@
         <v>74</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
@@ -27693,7 +27701,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -27711,18 +27719,18 @@
         <v>43</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -27748,10 +27756,10 @@
         <v>137</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -27781,10 +27789,10 @@
         <v>74</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Z228" t="s" s="2">
         <v>43</v>
@@ -27802,7 +27810,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -27820,18 +27828,18 @@
         <v>43</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -27854,13 +27862,13 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
@@ -27911,7 +27919,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -27929,18 +27937,18 @@
         <v>43</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AL229" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -28049,7 +28057,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -28160,7 +28168,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -28271,7 +28279,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -28382,7 +28390,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -28493,7 +28501,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -28602,7 +28610,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -28713,7 +28721,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -28826,7 +28834,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -28939,7 +28947,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29052,7 +29060,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -29163,7 +29171,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -29272,7 +29280,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -29383,7 +29391,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -29494,7 +29502,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -29520,10 +29528,10 @@
         <v>137</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -29553,10 +29561,10 @@
         <v>142</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Z244" t="s" s="2">
         <v>43</v>
@@ -29574,7 +29582,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -29592,18 +29600,18 @@
         <v>43</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AL244" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM244" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -29629,13 +29637,13 @@
         <v>190</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" t="s" s="2">
@@ -29685,7 +29693,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -29703,7 +29711,7 @@
         <v>43</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AL245" t="s" s="2">
         <v>43</v>
@@ -29714,7 +29722,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -29823,7 +29831,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -29934,7 +29942,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30047,7 +30055,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -30070,13 +30078,13 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
@@ -30127,7 +30135,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>50</v>
@@ -30142,21 +30150,21 @@
         <v>62</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AK249" t="s" s="2">
         <v>425</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AM249" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -30265,7 +30273,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -30376,7 +30384,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -30487,7 +30495,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -30598,7 +30606,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -30709,7 +30717,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -30818,7 +30826,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -30929,7 +30937,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31042,7 +31050,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -31155,7 +31163,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -31268,7 +31276,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -31379,7 +31387,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -31488,7 +31496,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -31599,7 +31607,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -31710,7 +31718,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -31736,13 +31744,13 @@
         <v>70</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" t="s" s="2">
@@ -31771,10 +31779,10 @@
         <v>131</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>43</v>
@@ -31792,7 +31800,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -31810,7 +31818,7 @@
         <v>43</v>
       </c>
       <c r="AK264" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AL264" t="s" s="2">
         <v>43</v>
@@ -31821,7 +31829,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -31847,13 +31855,13 @@
         <v>137</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" t="s" s="2">
@@ -31882,10 +31890,10 @@
         <v>230</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Z265" t="s" s="2">
         <v>43</v>
@@ -31903,7 +31911,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -31932,7 +31940,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -31958,10 +31966,10 @@
         <v>165</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
@@ -32012,7 +32020,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -32041,7 +32049,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32067,10 +32075,10 @@
         <v>172</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -32121,7 +32129,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -32139,18 +32147,18 @@
         <v>424</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AL267" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM267" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -32259,7 +32267,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -32370,7 +32378,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -32481,7 +32489,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -32592,7 +32600,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -32703,7 +32711,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -32812,7 +32820,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -32923,7 +32931,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -33036,7 +33044,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -33149,7 +33157,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -33262,7 +33270,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -33373,7 +33381,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -33482,7 +33490,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -33593,7 +33601,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -33704,7 +33712,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -33727,16 +33735,16 @@
         <v>43</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
@@ -33786,7 +33794,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -33801,10 +33809,10 @@
         <v>62</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AL282" t="s" s="2">
         <v>43</v>
@@ -33815,7 +33823,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -33924,7 +33932,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34035,7 +34043,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -34146,7 +34154,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -34257,7 +34265,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -34368,7 +34376,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -34477,7 +34485,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -34588,7 +34596,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -34701,7 +34709,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -34814,7 +34822,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -34927,7 +34935,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -35038,7 +35046,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -35147,7 +35155,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -35258,7 +35266,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
